--- a/biology/Zoologie/Belette_malaise/Belette_malaise.xlsx
+++ b/biology/Zoologie/Belette_malaise/Belette_malaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mustela nudipes · Putois à pieds nus
 La belette malaise (Mustela nudipes) est une espèce de mammifères de la famille des Mustelidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La belette malaise mesure de 30 à 36 cm) de long, avec une queue de 24 à 26 cm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit en Indonésie, dont Sumatra, Java et Bornéo, et sur la péninsule Malaise en Malaisie et en Thaïlande[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Indonésie, dont Sumatra, Java et Bornéo, et sur la péninsule Malaise en Malaisie et en Thaïlande.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Deux sous-espèces sont distinguées[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux sous-espèces sont distinguées :
 sous-espèce Mustela nudipes nudipes Desmarest, 1822
 sous-espèce Mustela nudipes leucocephalus (Gray, 1865)</t>
         </is>
